--- a/results/VR_GAME_POWER_CORRECTED.xlsx
+++ b/results/VR_GAME_POWER_CORRECTED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="196" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="196" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" state="visible" r:id="rId2"/>
@@ -133,11 +133,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,22 +157,25 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Monospace"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,12 +220,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,19 +233,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,10 +313,30 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Average Network Usage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -378,19 +394,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5305.2</c:v>
+                  <c:v>5.3052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9620.4</c:v>
+                  <c:v>9.6204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18250.8</c:v>
+                  <c:v>18.2508</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35511.6</c:v>
+                  <c:v>35.5116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70033.2</c:v>
+                  <c:v>70.0332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,19 +464,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8742.6</c:v>
+                  <c:v>8.7426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16493.3</c:v>
+                  <c:v>16.4933</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32082.8</c:v>
+                  <c:v>32.0828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62995.1</c:v>
+                  <c:v>62.9951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125167.2</c:v>
+                  <c:v>125.1672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,19 +534,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>39955.4</c:v>
+                  <c:v>39.9554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83232.4</c:v>
+                  <c:v>83.2324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>182496.9</c:v>
+                  <c:v>182.4969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>412879.3</c:v>
+                  <c:v>412.8793</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>705715.5</c:v>
+                  <c:v>705.7155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,30 +604,445 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>77545.3</c:v>
+                  <c:v>77.5453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>162091</c:v>
+                  <c:v>162.091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>356837.3</c:v>
+                  <c:v>356.8373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>694800.7</c:v>
+                  <c:v>694.8007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1274879.9</c:v>
+                  <c:v>1274.8799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="32370492"/>
-        <c:axId val="17913459"/>
+        <c:axId val="47769617"/>
+        <c:axId val="31529711"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32370492"/>
+        <c:axId val="47769617"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1200">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Physical Topology Configurations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="31529711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="31529711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1200">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Network Usage (in KiloBytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="47769617"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delay!$B$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.2268464961069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.3720530503984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.1994448547382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.668924516495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.9793126327174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delay!$C$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31.3287789953039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.5025036657381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.1264062389383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.5119245497953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.7167318795834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delay!$D$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>230.894682656686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230.547148213792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230.599631847753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>905.613373775554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4054.86828799421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delay!$E$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>225.157024055157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225.281648386786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225.561837766458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2950.67113654757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4574.15898335966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="53019358"/>
+        <c:axId val="33515764"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="53019358"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,14 +1058,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="17913459"/>
+        <c:crossAx val="33515764"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17913459"/>
+        <c:axId val="33515764"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,384 +1090,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32370492"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>delay!$B$1:$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>delay!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>24.2268464961069</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.3720530503984</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.1994448547382</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.668924516495</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.9793126327174</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>delay!$C$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>delay!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>31.3287789953039</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.5025036657381</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.1264062389383</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.5119245497953</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.7167318795834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>delay!$D$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>delay!$D$2:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>230.894682656686</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>230.547148213792</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>230.599631847753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>905.613373775554</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4054.86828799421</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>delay!$E$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>delay!$E$2:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>225.157024055157</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>225.281648386786</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225.561837766458</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2950.67113654757</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4574.15898335966</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="32008120"/>
-        <c:axId val="28928222"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="32008120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="28928222"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="28928222"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="32008120"/>
+        <c:crossAx val="53019358"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1071,7 +1125,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1273,11 +1327,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="68506977"/>
-        <c:axId val="60927996"/>
+        <c:axId val="53516297"/>
+        <c:axId val="15951667"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68506977"/>
+        <c:axId val="53516297"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,14 +1347,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="60927996"/>
+        <c:crossAx val="15951667"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60927996"/>
+        <c:axId val="15951667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,8 +1379,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68506977"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="53516297"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1364,16 +1418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>215280</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>407520</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>94680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1381,8 +1435,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3705120" y="495000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="3084480" y="3139560"/>
+        <a:ext cx="7002360" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1400,15 +1454,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>320400</xdr:colOff>
+      <xdr:colOff>347400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>489960</xdr:colOff>
+      <xdr:colOff>516600</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1416,8 +1470,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4690800" y="2914200"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="4717800" y="2905200"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1434,16 +1488,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1362240</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>318960</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1451,8 +1505,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3211200" y="3201120"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="3238200" y="3192120"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1472,8 +1526,8 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1713,7 +1767,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="n">
@@ -1748,7 +1802,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="n">
@@ -1783,7 +1837,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="n">
@@ -1818,7 +1872,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3" t="n">
@@ -1853,7 +1907,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3" t="n">
@@ -1975,34 +2029,34 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2182,7 +2236,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="n">
@@ -2217,7 +2271,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="3" t="n">
@@ -2252,7 +2306,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="3" t="n">
@@ -2287,7 +2341,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="3" t="n">
@@ -2322,7 +2376,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="3" t="n">
@@ -2449,10 +2503,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2484,16 +2538,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>5305.2</v>
+        <v>5.3052</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>8742.6</v>
+        <v>8.7426</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39955.4</v>
+        <v>39.9554</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>77545.3</v>
+        <v>77.5453</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,16 +2555,16 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>9620.4</v>
+        <v>9.6204</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>16493.3</v>
+        <v>16.4933</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>83232.4</v>
+        <v>83.2324</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>162091</v>
+        <v>162.091</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,16 +2572,16 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>18250.8</v>
+        <v>18.2508</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>32082.8</v>
+        <v>32.0828</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>182496.9</v>
+        <v>182.4969</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>356837.3</v>
+        <v>356.8373</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,16 +2589,16 @@
         <v>33</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>35511.6</v>
+        <v>35.5116</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>62995.1</v>
+        <v>62.9951</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>412879.3</v>
+        <v>412.8793</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>694800.7</v>
+        <v>694.8007</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,22 +2606,112 @@
         <v>34</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>70033.2</v>
+        <v>70.0332</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>125167.2</v>
+        <v>125.1672</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>705715.5</v>
+        <v>705.7155</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>1274879.9</v>
+        <v>1274.8799</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <f aca="false">B2/1000</f>
+        <v>0.0053052</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">C2/1000</f>
+        <v>0.0087426</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">D2/1000</f>
+        <v>0.0399554</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">E2/1000</f>
+        <v>0.0775453</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <f aca="false">B3/1000</f>
+        <v>0.0096204</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">C3/1000</f>
+        <v>0.0164933</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">D3/1000</f>
+        <v>0.0832324</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">E3/1000</f>
+        <v>0.162091</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <f aca="false">B4/1000</f>
+        <v>0.0182508</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">C4/1000</f>
+        <v>0.0320828</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">D4/1000</f>
+        <v>0.1824969</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">E4/1000</f>
+        <v>0.3568373</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <f aca="false">B5/1000</f>
+        <v>0.0355116</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">C5/1000</f>
+        <v>0.0629951</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">D5/1000</f>
+        <v>0.4128793</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">E5/1000</f>
+        <v>0.6948007</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <f aca="false">B6/1000</f>
+        <v>0.0700332</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">C6/1000</f>
+        <v>0.1251672</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">D6/1000</f>
+        <v>0.7057155</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">E6/1000</f>
+        <v>1.2748799</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2583,7 +2727,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2702,7 +2846,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2718,7 +2862,7 @@
   </sheetPr>
   <dimension ref="B1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2745,15 +2889,15 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3"/>
@@ -2851,7 +2995,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
